--- a/Docs/02_基本設計/データ定義/データ定義（買い物情報）.xlsx
+++ b/Docs/02_基本設計/データ定義/データ定義（買い物情報）.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="画面レイアウト（買い物情報登録画面）" sheetId="1" r:id="rId1"/>
-    <sheet name="買い物情報登録" sheetId="2" r:id="rId2"/>
-    <sheet name="リスト" sheetId="3" r:id="rId3"/>
+    <sheet name="データ定義（買い物情報）" sheetId="1" r:id="rId1"/>
+    <sheet name="リスト" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>金額</t>
     <rPh sb="0" eb="2">
@@ -56,10 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>買い物情報登録</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>購入日</t>
     <rPh sb="0" eb="2">
       <t>コウニュウ</t>
@@ -84,13 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>金額</t>
-    <rPh sb="0" eb="2">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>支払</t>
     <rPh sb="0" eb="2">
       <t>シハライ</t>
@@ -237,31 +225,6 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新者</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新日</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updateUser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updateDate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列1</t>
   </si>
 </sst>
 </file>
@@ -494,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -506,7 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -543,9 +505,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -560,120 +519,14 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>169151</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>46713</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3322"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="510737" y="0"/>
-          <a:ext cx="2268666" cy="4279953"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>145429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1889307" y="2756411"/>
-          <a:ext cx="644671" cy="292501"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B5:I13" totalsRowShown="0">
-  <autoFilter ref="B5:I13"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B5:H11" totalsRowShown="0">
+  <autoFilter ref="B5:H11"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="項目名"/>
     <tableColumn id="3" name="項目ID"/>
-    <tableColumn id="4" name="列1"/>
-    <tableColumn id="5" name="桁数"/>
+    <tableColumn id="4" name="桁数"/>
     <tableColumn id="6" name="フォーマット"/>
     <tableColumn id="7" name="繰り返し"/>
     <tableColumn id="8" name="備考"/>
@@ -969,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,47 +833,42 @@
     <col min="1" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="37.625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="E1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1028,12 +876,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1042,15 +887,12 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1059,96 +901,93 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="E8">
         <v>100</v>
       </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="E9">
         <v>100</v>
       </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10">
         <v>5</v>
@@ -1157,85 +996,67 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="E10">
         <v>10</v>
       </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
       <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11">
+        <v>33</v>
+      </c>
+      <c r="E11">
         <v>100</v>
       </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1244,12 +1065,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1258,12 +1076,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1272,12 +1087,9 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1286,12 +1098,9 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1300,12 +1109,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1314,12 +1120,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1328,12 +1131,9 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1342,12 +1142,9 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1356,12 +1153,9 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1370,12 +1164,9 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1384,12 +1175,9 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1398,12 +1186,9 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1412,12 +1197,9 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1426,12 +1208,9 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1440,12 +1219,9 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1454,12 +1230,9 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1468,12 +1241,9 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1482,12 +1252,9 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1496,12 +1263,9 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1510,12 +1274,9 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1524,16 +1285,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1543,18 +1301,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>リスト!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G14 G18 G16 G12</xm:sqref>
+          <xm:sqref>F14 F18 F16 F12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>リスト!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H14 H16 H18 G6:G11 H12</xm:sqref>
+          <xm:sqref>G14 G16 G18 F6:F11 G12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1564,105 +1322,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:O15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="5" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-    </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-    </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-    </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="H15:O15"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1670,72 +1329,72 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
